--- a/GroupPolicyRecommendations.xlsx
+++ b/GroupPolicyRecommendations.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="msEvents" sheetId="1" r:id="rId1"/>
+    <sheet name="Recommendations" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">msEvents!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recommendations!$B$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="293">
   <si>
     <t>Configuration</t>
   </si>
@@ -1284,6 +1285,24 @@
   </si>
   <si>
     <t>IASE STIG https://iase.disa.mil/stigs/os/windows/Pages/index.aspx</t>
+  </si>
+  <si>
+    <t>Version Number</t>
+  </si>
+  <si>
+    <t>Release Notes</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Initial Release</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Mar-31-2018</t>
   </si>
 </sst>
 </file>
@@ -1433,6 +1452,18 @@
   <autoFilter ref="A2:A65"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Full Group Policy Setting"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Version Number"/>
+    <tableColumn id="2" name="Release Notes"/>
+    <tableColumn id="3" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1703,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3146,4 +3177,49 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/GroupPolicyRecommendations.xlsx
+++ b/GroupPolicyRecommendations.xlsx
@@ -3184,7 +3184,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
